--- a/shedule.xlsx
+++ b/shedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -114,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,100 +126,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,57 +161,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -303,23 +177,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,165 +202,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -531,18 +266,18 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="9.14"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,7 +708,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -994,9 +729,11 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="4" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1017,12 +754,14 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4" t="n">
+        <v>777</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
